--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a2-Gp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a2-Gp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H2">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I2">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J2">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,27 +561,27 @@
         <v>0.159951</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.5209400637695697</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.5209400637695697</v>
       </c>
       <c r="Q2">
-        <v>0.342485801592</v>
+        <v>0.9453511619603335</v>
       </c>
       <c r="R2">
-        <v>3.082372214328</v>
+        <v>8.508160457643001</v>
       </c>
       <c r="S2">
-        <v>0.001681024218962088</v>
+        <v>0.002412934306413096</v>
       </c>
       <c r="T2">
-        <v>0.001681024218962089</v>
+        <v>0.002412934306413096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3580.644531333333</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H3">
-        <v>10741.933594</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I3">
-        <v>0.9370403925578976</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J3">
-        <v>0.9370403925578976</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.053317</v>
+        <v>0.04903066666666667</v>
       </c>
       <c r="N3">
-        <v>0.159951</v>
+        <v>0.147092</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.4790599362304302</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.4790599362304302</v>
       </c>
       <c r="Q3">
-        <v>190.9092244770993</v>
+        <v>0.8693511957728891</v>
       </c>
       <c r="R3">
-        <v>1718.183020293894</v>
+        <v>7.824160761956001</v>
       </c>
       <c r="S3">
-        <v>0.9370403925578976</v>
+        <v>0.002218950384798564</v>
       </c>
       <c r="T3">
-        <v>0.9370403925578976</v>
+        <v>0.002218950384798564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>233.243637</v>
+        <v>3580.644531333333</v>
       </c>
       <c r="H4">
-        <v>699.7309110000001</v>
+        <v>10741.933594</v>
       </c>
       <c r="I4">
-        <v>0.06103892951773311</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J4">
-        <v>0.06103892951773311</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,27 +685,27 @@
         <v>0.159951</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.5209400637695697</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.5209400637695697</v>
       </c>
       <c r="Q4">
-        <v>12.435850993929</v>
+        <v>190.9092244770993</v>
       </c>
       <c r="R4">
-        <v>111.922658945361</v>
+        <v>1718.183020293894</v>
       </c>
       <c r="S4">
-        <v>0.06103892951773311</v>
+        <v>0.4872807435876834</v>
       </c>
       <c r="T4">
-        <v>0.06103892951773311</v>
+        <v>0.4872807435876833</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,294 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9157713333333333</v>
+        <v>3580.644531333333</v>
       </c>
       <c r="H5">
-        <v>2.747314</v>
+        <v>10741.933594</v>
       </c>
       <c r="I5">
-        <v>0.0002396537054071653</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J5">
-        <v>0.0002396537054071653</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.04903066666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.147092</v>
+      </c>
+      <c r="O5">
+        <v>0.4790599362304302</v>
+      </c>
+      <c r="P5">
+        <v>0.4790599362304302</v>
+      </c>
+      <c r="Q5">
+        <v>175.5613884676276</v>
+      </c>
+      <c r="R5">
+        <v>1580.052496208648</v>
+      </c>
+      <c r="S5">
+        <v>0.4481066022456848</v>
+      </c>
+      <c r="T5">
+        <v>0.4481066022456847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>227.2177583333333</v>
+      </c>
+      <c r="H6">
+        <v>681.653275</v>
+      </c>
+      <c r="I6">
+        <v>0.0593570833501536</v>
+      </c>
+      <c r="J6">
+        <v>0.05935708335015359</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>0.053317</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>0.159951</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.04882618017933333</v>
-      </c>
-      <c r="R5">
-        <v>0.439435621614</v>
-      </c>
-      <c r="S5">
-        <v>0.0002396537054071653</v>
-      </c>
-      <c r="T5">
-        <v>0.0002396537054071653</v>
+      <c r="O6">
+        <v>0.5209400637695697</v>
+      </c>
+      <c r="P6">
+        <v>0.5209400637695697</v>
+      </c>
+      <c r="Q6">
+        <v>12.11456922105833</v>
+      </c>
+      <c r="R6">
+        <v>109.031122989525</v>
+      </c>
+      <c r="S6">
+        <v>0.03092148278560468</v>
+      </c>
+      <c r="T6">
+        <v>0.03092148278560468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>227.2177583333333</v>
+      </c>
+      <c r="H7">
+        <v>681.653275</v>
+      </c>
+      <c r="I7">
+        <v>0.0593570833501536</v>
+      </c>
+      <c r="J7">
+        <v>0.05935708335015359</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.04903066666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.147092</v>
+      </c>
+      <c r="O7">
+        <v>0.4790599362304302</v>
+      </c>
+      <c r="P7">
+        <v>0.4790599362304302</v>
+      </c>
+      <c r="Q7">
+        <v>11.14063816958889</v>
+      </c>
+      <c r="R7">
+        <v>100.2657435263</v>
+      </c>
+      <c r="S7">
+        <v>0.02843560056454892</v>
+      </c>
+      <c r="T7">
+        <v>0.02843560056454891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.387458333333333</v>
+      </c>
+      <c r="H8">
+        <v>7.162374999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.0006236861252666267</v>
+      </c>
+      <c r="J8">
+        <v>0.0006236861252666266</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.053317</v>
+      </c>
+      <c r="N8">
+        <v>0.159951</v>
+      </c>
+      <c r="O8">
+        <v>0.5209400637695697</v>
+      </c>
+      <c r="P8">
+        <v>0.5209400637695697</v>
+      </c>
+      <c r="Q8">
+        <v>0.1272921159583333</v>
+      </c>
+      <c r="R8">
+        <v>1.145629043625</v>
+      </c>
+      <c r="S8">
+        <v>0.0003249030898685924</v>
+      </c>
+      <c r="T8">
+        <v>0.0003249030898685923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.387458333333333</v>
+      </c>
+      <c r="H9">
+        <v>7.162374999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.0006236861252666267</v>
+      </c>
+      <c r="J9">
+        <v>0.0006236861252666266</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.04903066666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.147092</v>
+      </c>
+      <c r="O9">
+        <v>0.4790599362304302</v>
+      </c>
+      <c r="P9">
+        <v>0.4790599362304302</v>
+      </c>
+      <c r="Q9">
+        <v>0.1170586737222222</v>
+      </c>
+      <c r="R9">
+        <v>1.0535280635</v>
+      </c>
+      <c r="S9">
+        <v>0.0002987830353980343</v>
+      </c>
+      <c r="T9">
+        <v>0.0002987830353980343</v>
       </c>
     </row>
   </sheetData>
